--- a/team_specific_matrix/Oregon_B.xlsx
+++ b/team_specific_matrix/Oregon_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1666666666666667</v>
+        <v>0.1744186046511628</v>
       </c>
       <c r="C2">
-        <v>0.5777777777777777</v>
+        <v>0.5736434108527132</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01111111111111111</v>
+        <v>0.01937984496124031</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1166666666666667</v>
+        <v>0.1085271317829457</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1277777777777778</v>
+        <v>0.124031007751938</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.006493506493506494</v>
       </c>
       <c r="C3">
-        <v>0.04629629629629629</v>
+        <v>0.05194805194805195</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01851851851851852</v>
+        <v>0.02597402597402598</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6759259259259259</v>
+        <v>0.6623376623376623</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2592592592592592</v>
+        <v>0.2532467532467532</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6666666666666666</v>
+        <v>0.65</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3333333333333333</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.6666666666666666</v>
+        <v>0.8</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.3333333333333333</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05673758865248227</v>
+        <v>0.06091370558375635</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.01015228426395939</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.1063829787234043</v>
+        <v>0.09644670050761421</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2198581560283688</v>
+        <v>0.2284263959390863</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01418439716312057</v>
+        <v>0.02030456852791878</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1134751773049645</v>
+        <v>0.1116751269035533</v>
       </c>
       <c r="R6">
-        <v>0.05673758865248227</v>
+        <v>0.06091370558375635</v>
       </c>
       <c r="S6">
-        <v>0.4326241134751773</v>
+        <v>0.4111675126903553</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.075</v>
+        <v>0.08743169398907104</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.04166666666666666</v>
+        <v>0.0273224043715847</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.075</v>
+        <v>0.06010928961748634</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1166666666666667</v>
+        <v>0.1256830601092896</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01666666666666667</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1833333333333333</v>
+        <v>0.1584699453551913</v>
       </c>
       <c r="R7">
-        <v>0.08333333333333333</v>
+        <v>0.09289617486338798</v>
       </c>
       <c r="S7">
-        <v>0.4083333333333333</v>
+        <v>0.4316939890710382</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1213235294117647</v>
+        <v>0.1075</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01102941176470588</v>
+        <v>0.01</v>
       </c>
       <c r="E8">
-        <v>0.003676470588235294</v>
+        <v>0.0025</v>
       </c>
       <c r="F8">
-        <v>0.05514705882352941</v>
+        <v>0.0575</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1102941176470588</v>
+        <v>0.105</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01838235294117647</v>
+        <v>0.02</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1617647058823529</v>
+        <v>0.1525</v>
       </c>
       <c r="R8">
-        <v>0.09558823529411764</v>
+        <v>0.095</v>
       </c>
       <c r="S8">
-        <v>0.4227941176470588</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1595744680851064</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03191489361702127</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="E9">
-        <v>0.01063829787234043</v>
+        <v>0.006802721088435374</v>
       </c>
       <c r="F9">
-        <v>0.06382978723404255</v>
+        <v>0.06122448979591837</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.03191489361702127</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02127659574468085</v>
+        <v>0.01360544217687075</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1702127659574468</v>
+        <v>0.1972789115646258</v>
       </c>
       <c r="R9">
-        <v>0.09574468085106383</v>
+        <v>0.08163265306122448</v>
       </c>
       <c r="S9">
-        <v>0.4148936170212766</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1213872832369942</v>
+        <v>0.1149312377210216</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02890173410404624</v>
+        <v>0.0275049115913556</v>
       </c>
       <c r="E10">
-        <v>0.001445086705202312</v>
+        <v>0.002946954813359528</v>
       </c>
       <c r="F10">
-        <v>0.07658959537572255</v>
+        <v>0.06777996070726916</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1127167630057803</v>
+        <v>0.1159135559921415</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01878612716763006</v>
+        <v>0.02161100196463654</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1979768786127168</v>
+        <v>0.1836935166994106</v>
       </c>
       <c r="R10">
-        <v>0.06647398843930635</v>
+        <v>0.07269155206286837</v>
       </c>
       <c r="S10">
-        <v>0.3757225433526011</v>
+        <v>0.3929273084479371</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1648936170212766</v>
+        <v>0.1661129568106312</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06914893617021277</v>
+        <v>0.1096345514950166</v>
       </c>
       <c r="K11">
-        <v>0.1914893617021277</v>
+        <v>0.2093023255813954</v>
       </c>
       <c r="L11">
-        <v>0.5585106382978723</v>
+        <v>0.5016611295681063</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01595744680851064</v>
+        <v>0.0132890365448505</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7211538461538461</v>
+        <v>0.7350993377483444</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2403846153846154</v>
+        <v>0.2185430463576159</v>
       </c>
       <c r="K12">
-        <v>0.009615384615384616</v>
+        <v>0.006622516556291391</v>
       </c>
       <c r="L12">
-        <v>0.01923076923076923</v>
+        <v>0.01986754966887417</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.009615384615384616</v>
+        <v>0.01986754966887417</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.76</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.04</v>
+        <v>0.02564102564102564</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="S14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01379310344827586</v>
+        <v>0.009345794392523364</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1724137931034483</v>
+        <v>0.1728971962616822</v>
       </c>
       <c r="I15">
-        <v>0.05517241379310345</v>
+        <v>0.06542056074766354</v>
       </c>
       <c r="J15">
-        <v>0.3862068965517241</v>
+        <v>0.3364485981308411</v>
       </c>
       <c r="K15">
-        <v>0.04137931034482759</v>
+        <v>0.0514018691588785</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02068965517241379</v>
+        <v>0.02803738317757009</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.0896551724137931</v>
+        <v>0.102803738317757</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2206896551724138</v>
+        <v>0.2336448598130841</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01769911504424779</v>
+        <v>0.01910828025477707</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2389380530973451</v>
+        <v>0.2101910828025478</v>
       </c>
       <c r="I16">
-        <v>0.05309734513274336</v>
+        <v>0.07643312101910828</v>
       </c>
       <c r="J16">
-        <v>0.4070796460176991</v>
+        <v>0.3885350318471338</v>
       </c>
       <c r="K16">
-        <v>0.1238938053097345</v>
+        <v>0.1082802547770701</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03539823008849557</v>
+        <v>0.04458598726114649</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1238938053097345</v>
+        <v>0.1528662420382166</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02564102564102564</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2264957264957265</v>
+        <v>0.2073170731707317</v>
       </c>
       <c r="I17">
-        <v>0.07264957264957266</v>
+        <v>0.07317073170731707</v>
       </c>
       <c r="J17">
-        <v>0.2948717948717949</v>
+        <v>0.3201219512195122</v>
       </c>
       <c r="K17">
-        <v>0.1452991452991453</v>
+        <v>0.125</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0170940170940171</v>
+        <v>0.01829268292682927</v>
       </c>
       <c r="N17">
-        <v>0.004273504273504274</v>
+        <v>0.003048780487804878</v>
       </c>
       <c r="O17">
-        <v>0.08547008547008547</v>
+        <v>0.08536585365853659</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1282051282051282</v>
+        <v>0.1432926829268293</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,22 +1454,22 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0202020202020202</v>
+        <v>0.03267973856209151</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1616161616161616</v>
+        <v>0.1699346405228758</v>
       </c>
       <c r="I18">
-        <v>0.0707070707070707</v>
+        <v>0.09803921568627451</v>
       </c>
       <c r="J18">
-        <v>0.494949494949495</v>
+        <v>0.4313725490196079</v>
       </c>
       <c r="K18">
-        <v>0.1414141414141414</v>
+        <v>0.130718954248366</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.0707070707070707</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.04040404040404041</v>
+        <v>0.07843137254901961</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01904761904761905</v>
+        <v>0.02116402116402116</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2081632653061224</v>
+        <v>0.2107583774250441</v>
       </c>
       <c r="I19">
-        <v>0.0761904761904762</v>
+        <v>0.07319223985890652</v>
       </c>
       <c r="J19">
-        <v>0.3795918367346939</v>
+        <v>0.3606701940035273</v>
       </c>
       <c r="K19">
-        <v>0.1129251700680272</v>
+        <v>0.1305114638447972</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02448979591836735</v>
+        <v>0.02557319223985891</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.001763668430335097</v>
       </c>
       <c r="O19">
-        <v>0.08571428571428572</v>
+        <v>0.07671957671957672</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.09387755102040816</v>
+        <v>0.09964726631393298</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Oregon_B.xlsx
+++ b/team_specific_matrix/Oregon_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1744186046511628</v>
+        <v>0.1866404715127701</v>
       </c>
       <c r="C2">
-        <v>0.5736434108527132</v>
+        <v>0.5717092337917485</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01937984496124031</v>
+        <v>0.02161100196463654</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1085271317829457</v>
+        <v>0.1139489194499018</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.124031007751938</v>
+        <v>0.106090373280943</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006493506493506494</v>
+        <v>0.006644518272425249</v>
       </c>
       <c r="C3">
-        <v>0.05194805194805195</v>
+        <v>0.03322259136212625</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02597402597402598</v>
+        <v>0.03654485049833887</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6623376623376623</v>
+        <v>0.707641196013289</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2532467532467532</v>
+        <v>0.2159468438538206</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.02352941176470588</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.65</v>
+        <v>0.6588235294117647</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.35</v>
+        <v>0.3176470588235294</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.2</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06091370558375635</v>
+        <v>0.06032482598607888</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01015228426395939</v>
+        <v>0.006960556844547564</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.09644670050761421</v>
+        <v>0.07424593967517401</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2284263959390863</v>
+        <v>0.2505800464037123</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02030456852791878</v>
+        <v>0.02552204176334107</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1116751269035533</v>
+        <v>0.1554524361948956</v>
       </c>
       <c r="R6">
-        <v>0.06091370558375635</v>
+        <v>0.0765661252900232</v>
       </c>
       <c r="S6">
-        <v>0.4111675126903553</v>
+        <v>0.3503480278422274</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08743169398907104</v>
+        <v>0.08401084010840108</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0273224043715847</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.002710027100271003</v>
       </c>
       <c r="F7">
-        <v>0.06010928961748634</v>
+        <v>0.05420054200542006</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1256830601092896</v>
+        <v>0.1246612466124661</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01639344262295082</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1584699453551913</v>
+        <v>0.2005420054200542</v>
       </c>
       <c r="R7">
-        <v>0.09289617486338798</v>
+        <v>0.08672086720867209</v>
       </c>
       <c r="S7">
-        <v>0.4316939890710382</v>
+        <v>0.3983739837398374</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1075</v>
+        <v>0.09547738693467336</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01</v>
+        <v>0.01507537688442211</v>
       </c>
       <c r="E8">
-        <v>0.0025</v>
+        <v>0.001256281407035176</v>
       </c>
       <c r="F8">
-        <v>0.0575</v>
+        <v>0.06030150753768844</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.105</v>
+        <v>0.1080402010050251</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02</v>
+        <v>0.01884422110552764</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1525</v>
+        <v>0.1670854271356784</v>
       </c>
       <c r="R8">
-        <v>0.095</v>
+        <v>0.09170854271356783</v>
       </c>
       <c r="S8">
-        <v>0.45</v>
+        <v>0.4422110552763819</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1428571428571428</v>
+        <v>0.1055718475073314</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02040816326530612</v>
+        <v>0.01466275659824047</v>
       </c>
       <c r="E9">
-        <v>0.006802721088435374</v>
+        <v>0.005865102639296188</v>
       </c>
       <c r="F9">
-        <v>0.06122448979591837</v>
+        <v>0.05278592375366569</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.04761904761904762</v>
+        <v>0.1143695014662757</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01360544217687075</v>
+        <v>0.008797653958944282</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1972789115646258</v>
+        <v>0.187683284457478</v>
       </c>
       <c r="R9">
-        <v>0.08163265306122448</v>
+        <v>0.07038123167155426</v>
       </c>
       <c r="S9">
-        <v>0.4285714285714285</v>
+        <v>0.4398826979472141</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1149312377210216</v>
+        <v>0.1108534322820037</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0275049115913556</v>
+        <v>0.02782931354359926</v>
       </c>
       <c r="E10">
-        <v>0.002946954813359528</v>
+        <v>0.001855287569573284</v>
       </c>
       <c r="F10">
-        <v>0.06777996070726916</v>
+        <v>0.06725417439703155</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1159135559921415</v>
+        <v>0.1145640074211503</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02161100196463654</v>
+        <v>0.01948051948051948</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1836935166994106</v>
+        <v>0.2101113172541744</v>
       </c>
       <c r="R10">
-        <v>0.07269155206286837</v>
+        <v>0.08256029684601113</v>
       </c>
       <c r="S10">
-        <v>0.3929273084479371</v>
+        <v>0.3654916512059369</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1661129568106312</v>
+        <v>0.150259067357513</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1096345514950166</v>
+        <v>0.09671848013816926</v>
       </c>
       <c r="K11">
-        <v>0.2093023255813954</v>
+        <v>0.1986183074265976</v>
       </c>
       <c r="L11">
-        <v>0.5016611295681063</v>
+        <v>0.5457685664939551</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.0132890365448505</v>
+        <v>0.008635578583765112</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7350993377483444</v>
+        <v>0.75</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2185430463576159</v>
+        <v>0.190625</v>
       </c>
       <c r="K12">
-        <v>0.006622516556291391</v>
+        <v>0.009375</v>
       </c>
       <c r="L12">
-        <v>0.01986754966887417</v>
+        <v>0.021875</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01986754966887417</v>
+        <v>0.028125</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7435897435897436</v>
+        <v>0.759493670886076</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2307692307692308</v>
+        <v>0.2151898734177215</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02564102564102564</v>
+        <v>0.02531645569620253</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="S14">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.009345794392523364</v>
+        <v>0.01995565410199556</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1728971962616822</v>
+        <v>0.1906873614190687</v>
       </c>
       <c r="I15">
-        <v>0.06542056074766354</v>
+        <v>0.06430155210643015</v>
       </c>
       <c r="J15">
-        <v>0.3364485981308411</v>
+        <v>0.3215077605321508</v>
       </c>
       <c r="K15">
-        <v>0.0514018691588785</v>
+        <v>0.07982261640798226</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02803738317757009</v>
+        <v>0.01330376940133038</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.102803738317757</v>
+        <v>0.1175166297117517</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2336448598130841</v>
+        <v>0.1929046563192905</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01910828025477707</v>
+        <v>0.02786377708978328</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2101910828025478</v>
+        <v>0.1981424148606811</v>
       </c>
       <c r="I16">
-        <v>0.07643312101910828</v>
+        <v>0.108359133126935</v>
       </c>
       <c r="J16">
-        <v>0.3885350318471338</v>
+        <v>0.3498452012383901</v>
       </c>
       <c r="K16">
-        <v>0.1082802547770701</v>
+        <v>0.1114551083591331</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.01238390092879257</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04458598726114649</v>
+        <v>0.06811145510835913</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1528662420382166</v>
+        <v>0.1238390092879257</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02439024390243903</v>
+        <v>0.03299492385786802</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2073170731707317</v>
+        <v>0.1941624365482233</v>
       </c>
       <c r="I17">
-        <v>0.07317073170731707</v>
+        <v>0.08756345177664974</v>
       </c>
       <c r="J17">
-        <v>0.3201219512195122</v>
+        <v>0.3730964467005076</v>
       </c>
       <c r="K17">
-        <v>0.125</v>
+        <v>0.1015228426395939</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01829268292682927</v>
+        <v>0.01649746192893401</v>
       </c>
       <c r="N17">
-        <v>0.003048780487804878</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="O17">
-        <v>0.08536585365853659</v>
+        <v>0.07487309644670051</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1432926829268293</v>
+        <v>0.116751269035533</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03267973856209151</v>
+        <v>0.02662721893491124</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1699346405228758</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="I18">
-        <v>0.09803921568627451</v>
+        <v>0.1035502958579882</v>
       </c>
       <c r="J18">
-        <v>0.4313725490196079</v>
+        <v>0.4053254437869823</v>
       </c>
       <c r="K18">
-        <v>0.130718954248366</v>
+        <v>0.1183431952662722</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.01183431952662722</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05882352941176471</v>
+        <v>0.1124260355029586</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.07843137254901961</v>
+        <v>0.06804733727810651</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02116402116402116</v>
+        <v>0.02588555858310627</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2107583774250441</v>
+        <v>0.2016348773841962</v>
       </c>
       <c r="I19">
-        <v>0.07319223985890652</v>
+        <v>0.07856494096276112</v>
       </c>
       <c r="J19">
-        <v>0.3606701940035273</v>
+        <v>0.3673932788374205</v>
       </c>
       <c r="K19">
-        <v>0.1305114638447972</v>
+        <v>0.1212534059945504</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02557319223985891</v>
+        <v>0.02497729336966394</v>
       </c>
       <c r="N19">
-        <v>0.001763668430335097</v>
+        <v>0.0009082652134423251</v>
       </c>
       <c r="O19">
-        <v>0.07671957671957672</v>
+        <v>0.07447774750227067</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.09964726631393298</v>
+        <v>0.1049046321525886</v>
       </c>
     </row>
   </sheetData>
